--- a/docs/需求.xlsx
+++ b/docs/需求.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>角色</t>
   </si>
@@ -58,19 +58,49 @@
     <t>查找房源</t>
   </si>
   <si>
+    <t>首页</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
     <t>有合适的房源时申请入住</t>
   </si>
   <si>
+    <t>城区</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>输入框</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
     <t>无合适的房源时发布申请单</t>
   </si>
   <si>
+    <t>汉口-火车站-xxx酒店，XXX</t>
+  </si>
+  <si>
+    <t>查看详情，申请住宿</t>
+  </si>
+  <si>
     <t>医院字典</t>
   </si>
   <si>
     <t>行政区划字典</t>
+  </si>
+  <si>
+    <t>医护人员登录/注册</t>
+  </si>
+  <si>
+    <t>酒店登录</t>
+  </si>
+  <si>
+    <t>酒店注册</t>
   </si>
 </sst>
 </file>
@@ -78,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,9 +130,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,14 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,9 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,37 +178,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +199,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -207,12 +229,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -230,7 +260,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,175 +459,93 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,7 +562,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,224 +646,204 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1009,13 +1164,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="18.8928571428571" customWidth="1"/>
     <col min="2" max="2" width="26.0357142857143" customWidth="1"/>
@@ -1069,40 +1224,182 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="18.35" spans="2:11">
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="8:11">
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="8:11">
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" ht="18.35" spans="8:11">
+      <c r="H23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/docs/需求.xlsx
+++ b/docs/需求.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>角色</t>
   </si>
@@ -22,70 +22,79 @@
     <t>功能</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>酒店</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>发布房源</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>查看入住需求、接单</t>
+  </si>
+  <si>
+    <t>申请单列表</t>
+  </si>
+  <si>
+    <t>查看列表</t>
+  </si>
+  <si>
+    <t>已接单及历史记录列表</t>
+  </si>
+  <si>
+    <t>用户（医护人员）</t>
+  </si>
+  <si>
+    <t>查找房源</t>
+  </si>
+  <si>
+    <t>房源列表</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>有合适的房源时申请入住</t>
+  </si>
+  <si>
+    <t>城区</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>输入框</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>无合适的房源时发布申请单</t>
+  </si>
+  <si>
+    <t>汉口-火车站-xxx酒店，XXX</t>
+  </si>
+  <si>
+    <t>查看详情，申请住宿</t>
+  </si>
+  <si>
     <t>数据库表</t>
   </si>
   <si>
-    <t>酒店</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>酒店表</t>
   </si>
   <si>
-    <t>查看入住需求</t>
-  </si>
-  <si>
     <t>用户表</t>
   </si>
   <si>
-    <t>发布房源</t>
-  </si>
-  <si>
     <t>申请表</t>
-  </si>
-  <si>
-    <t>接单</t>
-  </si>
-  <si>
-    <t>查看列表</t>
-  </si>
-  <si>
-    <t>用户（医护人员）</t>
-  </si>
-  <si>
-    <t>查找房源</t>
-  </si>
-  <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>有合适的房源时申请入住</t>
-  </si>
-  <si>
-    <t>城区</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>输入框</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <t>无合适的房源时发布申请单</t>
-  </si>
-  <si>
-    <t>汉口-火车站-xxx酒店，XXX</t>
-  </si>
-  <si>
-    <t>查看详情，申请住宿</t>
   </si>
   <si>
     <t>医院字典</t>
@@ -1167,103 +1176,119 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="18.8928571428571" customWidth="1"/>
     <col min="2" max="2" width="26.0357142857143" customWidth="1"/>
+    <col min="3" max="3" width="17.0714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" ht="18.35" spans="2:3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="18.35" spans="2:11">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9"/>
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1271,61 +1296,73 @@
     </row>
     <row r="11" spans="8:11">
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
-        <v>24</v>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" t="s">
-        <v>25</v>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="8:11">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="8:11">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="8:11">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="8:11">
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1333,7 +1370,7 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1341,7 +1378,7 @@
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1349,7 +1386,7 @@
     </row>
     <row r="20" spans="8:11">
       <c r="H20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1357,7 +1394,7 @@
     </row>
     <row r="21" spans="8:11">
       <c r="H21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1365,7 +1402,7 @@
     </row>
     <row r="22" spans="8:11">
       <c r="H22" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1373,17 +1410,17 @@
     </row>
     <row r="23" ht="18.35" spans="8:11">
       <c r="H23" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>

--- a/docs/需求.xlsx
+++ b/docs/需求.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23780" windowHeight="11860"/>
+    <workbookView windowWidth="23780" windowHeight="11860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bug与需求列表" sheetId="2" r:id="rId2"/>
+    <sheet name="URL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>角色</t>
   </si>
@@ -110,6 +112,102 @@
   </si>
   <si>
     <t>酒店注册</t>
+  </si>
+  <si>
+    <t>处理人</t>
+  </si>
+  <si>
+    <t>处理方案</t>
+  </si>
+  <si>
+    <t>在手机上，编辑页面底部的提交按钮显示有问题，是一条线</t>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>酒店登录问题</t>
+  </si>
+  <si>
+    <t>全部列表页列表上的两个筛选、搜索，操作没有筛选和搜索结果</t>
+  </si>
+  <si>
+    <t>全部注册页不应该有按钮”登录“</t>
+  </si>
+  <si>
+    <t>全部页面从底部升起的“下拉选项”控件，把关闭按钮改为“确定”更好</t>
+  </si>
+  <si>
+    <t>酒店详情页还没套</t>
+  </si>
+  <si>
+    <t>地区和医院  关联处理</t>
+  </si>
+  <si>
+    <t>酒店后台少了logout</t>
+  </si>
+  <si>
+    <t>不同角色登录，串了</t>
+  </si>
+  <si>
+    <t>酒店人员，接单后，自动跳转至“我的接单”页</t>
+  </si>
+  <si>
+    <t>赵星</t>
+  </si>
+  <si>
+    <t>请先创建酒店</t>
+  </si>
+  <si>
+    <t>已使用的房间数，不能为0</t>
+  </si>
+  <si>
+    <t>酒店添加时，类型请设置为酒店 公寓 民宿三个选项，不需要填写</t>
+  </si>
+  <si>
+    <t>酒店添加时，加一个固定电话字段，需要填写</t>
+  </si>
+  <si>
+    <t>酒店添加时，可用房间数改为可提供房间数，删掉已用房间数</t>
+  </si>
+  <si>
+    <t>酒店添加时，是否提供餐食也作为单选项</t>
+  </si>
+  <si>
+    <t>添加酒店后，需要填写附近的医院</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>hotel_list</t>
+  </si>
+  <si>
+    <t>查找房源（酒店列表）</t>
+  </si>
+  <si>
+    <t>apply_list</t>
+  </si>
+  <si>
+    <t>查看申请（没有酒店的申请单列表）</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>用户注册（医护、志愿者、后勤保障人员）</t>
+  </si>
+  <si>
+    <t>apply_hotel</t>
+  </si>
+  <si>
+    <t>有酒店的申请</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>无酒店的申请</t>
   </si>
 </sst>
 </file>
@@ -122,7 +220,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,15 +229,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +264,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -162,75 +380,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -243,37 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,26 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,6 +705,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +748,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -640,173 +773,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1173,10 +1300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1242,10 +1369,10 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
@@ -1254,8 +1381,8 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" ht="18.35" spans="2:3">
       <c r="B8" t="s">
@@ -1269,17 +1396,16 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9"/>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1287,137 +1413,138 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="8:11">
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="8:11">
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="8:11">
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="8:11">
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="8:11">
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="13"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" ht="18.35" spans="8:11">
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="15"/>
-    </row>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" ht="18.35"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="I6:J6"/>
@@ -1440,4 +1567,229 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="54.0089285714286" customWidth="1"/>
+    <col min="3" max="3" width="31.9910714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.4464285714286" customWidth="1"/>
+    <col min="2" max="2" width="27.0714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/需求.xlsx
+++ b/docs/需求.xlsx
@@ -11,12 +11,15 @@
     <sheet name="bug与需求列表" sheetId="2" r:id="rId2"/>
     <sheet name="URL" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bug与需求列表!$A$1:$E$26</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>角色</t>
   </si>
@@ -114,10 +117,16 @@
     <t>酒店注册</t>
   </si>
   <si>
-    <t>处理人</t>
-  </si>
-  <si>
-    <t>处理方案</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>预计</t>
   </si>
   <si>
     <t>在手机上，编辑页面底部的提交按钮显示有问题，是一条线</t>
@@ -153,28 +162,78 @@
     <t>酒店人员，接单后，自动跳转至“我的接单”页</t>
   </si>
   <si>
+    <t>请先创建酒店</t>
+  </si>
+  <si>
+    <t>已使用的房间数，不能为0</t>
+  </si>
+  <si>
+    <t>酒店添加时，类型请设置为酒店 公寓 民宿三个选项，不需要填写</t>
+  </si>
+  <si>
+    <t>酒店添加时，加一个固定电话字段，需要填写</t>
+  </si>
+  <si>
+    <t>酒店添加时，可用房间数改为可提供房间数，删掉已用房间数</t>
+  </si>
+  <si>
+    <t>酒店添加时，是否提供餐食也作为单选项</t>
+  </si>
+  <si>
+    <t>添加酒店后，需要填写附近的医院</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>房源需求，里面一直是空</t>
+  </si>
+  <si>
     <t>赵星</t>
   </si>
   <si>
-    <t>请先创建酒店</t>
-  </si>
-  <si>
-    <t>已使用的房间数，不能为0</t>
-  </si>
-  <si>
-    <t>酒店添加时，类型请设置为酒店 公寓 民宿三个选项，不需要填写</t>
-  </si>
-  <si>
-    <t>酒店添加时，加一个固定电话字段，需要填写</t>
-  </si>
-  <si>
-    <t>酒店添加时，可用房间数改为可提供房间数，删掉已用房间数</t>
-  </si>
-  <si>
-    <t>酒店添加时，是否提供餐食也作为单选项</t>
-  </si>
-  <si>
-    <t>添加酒店后，需要填写附近的医院</t>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>酒店列表，关键字搜索同时搜索医院、酒店名称、酒店介绍</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>医护人员提交申请住宿时，需要增加“我的医院”</t>
+  </si>
+  <si>
+    <t>Paris、喻康</t>
+  </si>
+  <si>
+    <t>距医院的距离，单位为公里，让用户填写</t>
+  </si>
+  <si>
+    <t>酒店用户，退出登录按钮，现在的位置不明显，找不到。。。</t>
+  </si>
+  <si>
+    <t>酒店信息里，餐食，变成多选框</t>
+  </si>
+  <si>
+    <t>医护人员，增加个人中心。可以
+1 修改个人信息
+2查看自己的申请单，
+3 可以退出登录，
+4 可以取消申请单</t>
+  </si>
+  <si>
+    <t>预计25日上线</t>
+  </si>
+  <si>
+    <t>酒店用户，
+“房源需求”改名为“申请单（未指定酒店）”
+“我的接单”分成2个，分别是
+“申请单（我的酒店）”
+“我的已接单”</t>
   </si>
   <si>
     <t>/</t>
@@ -216,11 +275,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,14 +294,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -250,9 +302,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,7 +333,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,33 +424,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,66 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -402,55 +454,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,109 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,8 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,17 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,30 +766,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,129 +795,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,37 +956,40 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,10 +1424,10 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
@@ -1381,8 +1436,8 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" ht="18.35" spans="2:3">
       <c r="B8" t="s">
@@ -1396,16 +1451,16 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1413,136 +1468,136 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="8:11">
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="8:11">
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="8:11">
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="8:11">
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="8:11">
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" ht="18.35" spans="8:11">
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" ht="18.35"/>
   </sheetData>
@@ -1571,155 +1626,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="54.0089285714286" customWidth="1"/>
-    <col min="3" max="3" width="31.9910714285714" customWidth="1"/>
+    <col min="2" max="2" width="54.0089285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.0267857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.2321428571429" customWidth="1"/>
+    <col min="5" max="5" width="20.5267857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="18" spans="1:5">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" ht="36" hidden="1" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="3" ht="18" hidden="1" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="36" hidden="1" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="18" hidden="1" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="36" hidden="1" spans="2:4">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="18" hidden="1" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="18" hidden="1" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="18" hidden="1" spans="2:4">
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="18" hidden="1" spans="2:4">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="18" hidden="1" spans="2:4">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="18" hidden="1" spans="2:4">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="18" hidden="1" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="36" hidden="1" spans="2:4">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="18" hidden="1" spans="2:4">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="36" hidden="1" spans="2:4">
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="18" hidden="1" spans="2:4">
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C17" s="4"/>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="18" hidden="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:4">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="1:4">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="88" spans="1:5">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" ht="88" spans="1:4">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E26">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1742,7 +1950,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1750,42 +1958,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
